--- a/contatos.xlsx
+++ b/contatos.xlsx
@@ -502,7 +502,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="4">
-        <v>968497739</v>
+        <v>966652864</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
@@ -524,7 +524,7 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="4">
-        <v>991720066</v>
+        <v>979127170</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>11</v>

--- a/contatos.xlsx
+++ b/contatos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Data</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473, http://www.vivareal.com.br/imovel/vivapro-id-2643138473</t>
-  </si>
-  <si>
-    <t>Fernando</t>
   </si>
 </sst>
 </file>
@@ -69,7 +66,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,13 +75,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -129,14 +119,14 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="22" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -491,47 +481,43 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4">
-        <v>966652864</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5">
+        <v>992575078</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="5"/>
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="4">
-        <v>979127170</v>
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6">
+        <v>966652864</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/contatos.xlsx
+++ b/contatos.xlsx
@@ -486,7 +486,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="4"/>
       <c r="D2" s="5">
-        <v>992575078</v>
+        <v>990033942</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>

--- a/contatos.xlsx
+++ b/contatos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Data</t>
   </si>
@@ -40,25 +40,22 @@
     <t>link</t>
   </si>
   <si>
-    <t>02/08/2023 11:35:43</t>
-  </si>
-  <si>
-    <t>Luis</t>
-  </si>
-  <si>
-    <t>renatin.xp@gmail.com</t>
+    <t>Maycon</t>
+  </si>
+  <si>
+    <t>mayconhenrique360@gmail.com</t>
   </si>
   <si>
     <t>"Bom dia! Como faz pra ver? Me chama no zap"</t>
   </si>
   <si>
-    <t>VI36602</t>
+    <t>GOLDEN26</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>http:/www.zapimoveis.com.br/imovel/imovel-id-2643138473, http://www.vivareal.com.br/imovel/vivapro-id-2643138473</t>
+    <t>http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153, http://www.vivareal.com.br/imovel/vivapro-id-2645537153</t>
   </si>
 </sst>
 </file>
@@ -66,13 +63,26 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -108,31 +118,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="22" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="22" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -439,33 +452,33 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="15.862142857142858" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="12.005" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -481,42 +494,30 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="4"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5">
-        <v>990033942</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="1">
+        <v>45140.46003472222</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D2" s="6">
+        <v>992193853</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6">
-        <v>966652864</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/contatos.xlsx
+++ b/contatos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>Data</t>
   </si>
@@ -49,13 +49,13 @@
     <t>"Bom dia! Como faz pra ver? Me chama no zap"</t>
   </si>
   <si>
+    <t>GOLDEN29</t>
+  </si>
+  <si>
+    <t>http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153, http://www.vivareal.com.br/imovel/vivapro-id-2645537153</t>
+  </si>
+  <si>
     <t>GOLDEN26</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153, http://www.vivareal.com.br/imovel/vivapro-id-2645537153</t>
   </si>
 </sst>
 </file>
@@ -63,7 +63,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,18 +73,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -126,17 +120,17 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="22" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -452,7 +446,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -464,11 +458,11 @@
     <col min="4" max="4" style="10" width="12.005" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,25 +481,25 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1">
-        <v>45140.46003472222</v>
+        <v>45140.45972222222</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6">
-        <v>992193853</v>
+      <c r="D2" s="4">
+        <v>974151186</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -513,11 +507,63 @@
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="1">
+        <v>45140.45972222222</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>989107543</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="1">
+        <v>45140.46003472222</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>989107543</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/contatos.xlsx
+++ b/contatos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Data</t>
   </si>
@@ -446,7 +446,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -488,18 +488,18 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1">
         <v>45140.45972222222</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="4">
-        <v>974151186</v>
+        <v>967208668</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -516,53 +516,27 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1">
-        <v>45140.45972222222</v>
+        <v>45140.46003472222</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="4">
-        <v>989107543</v>
+        <v>967208668</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G3" s="4">
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1">
-        <v>45140.46003472222</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4">
-        <v>989107543</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
     </row>

--- a/contatos.xlsx
+++ b/contatos.xlsx
@@ -499,7 +499,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="4">
-        <v>967208668</v>
+        <v>991720066</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -525,7 +525,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="4">
-        <v>967208668</v>
+        <v>991720066</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>

--- a/contatos.xlsx
+++ b/contatos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>Data</t>
   </si>
@@ -49,13 +49,13 @@
     <t>"Bom dia! Como faz pra ver? Me chama no zap"</t>
   </si>
   <si>
+    <t>GOLDEN26</t>
+  </si>
+  <si>
+    <t>http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153, http://www.vivareal.com.br/imovel/vivapro-id-2645537153</t>
+  </si>
+  <si>
     <t>GOLDEN29</t>
-  </si>
-  <si>
-    <t>http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153, http://www.vivareal.com.br/imovel/vivapro-id-2645537153</t>
-  </si>
-  <si>
-    <t>GOLDEN26</t>
   </si>
 </sst>
 </file>
@@ -112,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="22" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -128,6 +128,15 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="22" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -446,20 +455,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -488,17 +497,17 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="6">
         <v>45140.45972222222</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="8">
         <v>21991720066</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -507,7 +516,7 @@
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="8">
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -516,16 +525,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1">
-        <v>45140.46003472222</v>
+        <v>45140.45972222222</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="4">
-        <v>21992193853</v>
+        <v>21991720066</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
@@ -537,6 +546,32 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="1">
+        <v>45140.46003472222</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>21992193853</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
     </row>

--- a/contatos.xlsx
+++ b/contatos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Data</t>
   </si>
@@ -49,13 +49,13 @@
     <t>"Bom dia! Como faz pra ver? Me chama no zap"</t>
   </si>
   <si>
+    <t>GOLDEN29</t>
+  </si>
+  <si>
+    <t>http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153, http://www.vivareal.com.br/imovel/vivapro-id-2645537153</t>
+  </si>
+  <si>
     <t>GOLDEN26</t>
-  </si>
-  <si>
-    <t>http:/www.zapimoveis.com.br/imovel/imovel-id-2645537153, http://www.vivareal.com.br/imovel/vivapro-id-2645537153</t>
-  </si>
-  <si>
-    <t>GOLDEN29</t>
   </si>
 </sst>
 </file>
@@ -112,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="22" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -128,15 +128,6 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="22" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -455,20 +446,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="26.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -497,18 +488,18 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="6">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="1">
         <v>45140.45972222222</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8">
-        <v>21991720066</v>
+      <c r="D2" s="4">
+        <v>21992193853</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -516,7 +507,7 @@
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="4">
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -525,16 +516,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1">
-        <v>45140.45972222222</v>
+        <v>45140.46003472222</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="4">
-        <v>21991720066</v>
+        <v>21992193853</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
@@ -546,32 +537,6 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1">
-        <v>45140.46003472222</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4">
-        <v>21992193853</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
     </row>

--- a/contatos.xlsx
+++ b/contatos.xlsx
@@ -499,7 +499,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="4">
-        <v>21992193853</v>
+        <v>21966652864</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -525,7 +525,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="4">
-        <v>21992193853</v>
+        <v>21966652864</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>

--- a/contatos.xlsx
+++ b/contatos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>Data</t>
   </si>
@@ -112,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="22" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -128,6 +128,15 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="22" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -446,20 +455,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="26.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="26.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -495,7 +504,7 @@
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="4">
@@ -514,17 +523,17 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1">
-        <v>45140.46003472222</v>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="6">
+        <v>45140.45972222222</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="8">
         <v>21966652864</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -533,10 +542,62 @@
       <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="8">
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="6">
+        <v>45140.45972222222</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="8">
+        <v>21992193853</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="1">
+        <v>45140.45972222222</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4">
+        <v>21992193853</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
